--- a/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBD9BE-A743-4F7D-900B-24C1B05151CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD0352-1883-4E4E-A5A8-595F9A470A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="99">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -414,6 +414,10 @@
   </si>
   <si>
     <t xml:space="preserve"> Entity：會員手機  Table Name : MemberTel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：商場  Table Name : MemberStore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,14 +569,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
-  <dimension ref="B2:H65"/>
+  <dimension ref="B2:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -906,26 +919,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1048,15 +1070,15 @@
       <c r="H10" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1121,7 +1143,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1144,18 +1166,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1199,7 +1221,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1218,7 +1240,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1241,18 +1263,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1274,19 +1312,26 @@
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
@@ -1294,368 +1339,320 @@
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3" t="s">
-        <v>51</v>
+      <c r="G31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
+        <v>40</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="5">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>7</v>
+      <c r="F48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="E50" s="3">
+        <v>400</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>23</v>
@@ -1666,220 +1663,172 @@
       <c r="F52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H53" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+    </row>
+    <row r="58" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="E59" s="3">
         <v>10</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="62" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="3">
-        <v>12</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E64" s="3">
+        <v>12</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>47</v>
@@ -1887,21 +1836,284 @@
       <c r="F65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="3"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="3">
+        <v>200</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>12</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B73:H73"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B62:H62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD0352-1883-4E4E-A5A8-595F9A470A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7552BF-0F13-40D2-830E-FAD1D125F81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView minimized="1" xWindow="35850" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -569,15 +569,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,6 +577,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,35 +919,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -995,7 +995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1070,15 +1070,15 @@
       <c r="H10" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1167,15 +1167,15 @@
       </c>
     </row>
     <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -1264,24 +1264,24 @@
       </c>
     </row>
     <row r="26" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="8"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
     </row>
     <row r="27" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1398,69 +1398,69 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
@@ -1692,15 +1692,15 @@
       </c>
     </row>
     <row r="56" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -1766,15 +1766,15 @@
       <c r="H59" s="4"/>
     </row>
     <row r="62" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
@@ -1943,15 +1943,15 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">

--- a/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7552BF-0F13-40D2-830E-FAD1D125F81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D9670-D4CD-462D-95C2-178B812C20AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35850" yWindow="390" windowWidth="28800" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView xWindow="5760" yWindow="1755" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="使用者共通資料表" sheetId="1" r:id="rId1"/>
+    <sheet name="支持者" sheetId="2" r:id="rId2"/>
+    <sheet name="創作者" sheetId="3" r:id="rId3"/>
+    <sheet name="商場" sheetId="4" r:id="rId4"/>
+    <sheet name="物流" sheetId="5" r:id="rId5"/>
+    <sheet name="金流" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -418,6 +423,46 @@
   </si>
   <si>
     <t xml:space="preserve"> Entity：商場  Table Name : MemberStore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>創作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多組收件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：會員地址  Table Name : MemberAdress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +630,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
-  <dimension ref="B2:T80"/>
+  <dimension ref="B2:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -918,7 +975,7 @@
     <col min="8" max="8" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>96</v>
       </c>
@@ -928,8 +985,14 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -937,8 +1000,14 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
@@ -948,8 +1017,11 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -971,8 +1043,11 @@
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1069,11 @@
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1013,8 +1091,11 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1032,8 +1113,11 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1051,8 +1135,11 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1068,8 +1155,21 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
@@ -1080,7 +1180,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1243,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1166,9 +1266,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1177,7 +1295,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1221,7 +1339,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1358,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1263,18 +1381,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1282,15 +1391,8 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1312,15 +1414,8 @@
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1340,15 +1435,8 @@
         <v>12</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1366,15 +1454,8 @@
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1397,726 +1478,896 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-    </row>
     <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
+      <c r="B34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3">
+        <v>30</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="49" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="3">
-        <v>40</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="5">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="3">
-        <v>400</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="52" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="E52" s="3">
+        <v>40</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="5">
         <v>2</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="3">
+        <v>23</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="62" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="3">
-        <v>12</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3">
+        <v>12</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="F73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="3">
-        <v>200</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E76" s="3">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="3">
+        <v>5</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
+        <v>12</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="3" t="s">
+      <c r="F84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+    <row r="85" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="G85" s="4"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3" t="s">
+      <c r="F87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B69:H69"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B62:H62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B2B128-5F9F-4A7B-9600-9BDFFEEEF83C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E44AE-2056-45B5-9A03-A170E0F73CB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DA9210-703F-406D-A3E5-7A8B771980A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514B751-61A1-4BF4-BCBA-04E6B872956E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A1A52B-09D7-4592-A0EE-04F2A3DA8B06}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
@@ -8,29 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D9670-D4CD-462D-95C2-178B812C20AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE1183-CAC4-4451-934B-9E5981FDC65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1755" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
+    <workbookView xWindow="5760" yWindow="1755" windowWidth="28800" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="使用者共通資料表" sheetId="1" r:id="rId1"/>
-    <sheet name="支持者" sheetId="2" r:id="rId2"/>
-    <sheet name="創作者" sheetId="3" r:id="rId3"/>
-    <sheet name="商場" sheetId="4" r:id="rId4"/>
-    <sheet name="物流" sheetId="5" r:id="rId5"/>
-    <sheet name="金流" sheetId="6" r:id="rId6"/>
+    <sheet name="資料字典" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="130">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -426,43 +430,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支持者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>創作者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓氏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>多組收件地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Entity：會員地址  Table Name : MemberAdress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者共通資料儲存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>創作者編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持者編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子信箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人手機號碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入帳號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密密碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIQUE	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID唯一的會員識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PasswordHash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：創作者  Table Name : Creator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CreatorID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>創建帳號日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>google_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 帳號的唯一 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放雜湊後的密碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：支持者  Table Name : Supporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SupporterID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ref. Supporter.SupporterID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,8 +607,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +641,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -589,13 +690,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,21 +775,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="備註" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,24 +1108,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
-  <dimension ref="B2:M87"/>
+  <dimension ref="B2:Q90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>96</v>
       </c>
@@ -985,191 +1139,276 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="M2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="K5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="3">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="N7" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+    </row>
+    <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="3">
+        <v>255</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3">
+      <c r="N8" s="3">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="L7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="O8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="3">
+        <v>255</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="N9" s="5">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="L8" t="s">
+      <c r="O9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5">
-        <v>50</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
@@ -1179,8 +1418,25 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="5">
+        <v>50</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,8 +1458,23 @@
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1514,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1266,806 +1537,850 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="18" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="21" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3">
-        <v>30</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="3">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3">
+        <v>36</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="3">
+        <v>30</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="O40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3">
+      <c r="N41" s="3">
         <v>5</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="O41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="46" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K46" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="3" t="s">
+    <row r="48" spans="11:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="3">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7"/>
+      <c r="K49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="3">
+        <v>36</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K50" s="6"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="K52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3">
-        <v>30</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E55" s="3">
+        <v>40</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="K55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="3">
         <v>36</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="3">
-        <v>20</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="O55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="3">
-        <v>30</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="3">
-        <v>20</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="49" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="3">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="3">
-        <v>40</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+    <row r="56" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="5">
         <v>2</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+    <row r="63" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E63" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="F63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
+    <row r="66" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+    <row r="68" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E68" s="3">
         <v>2</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E69" s="3">
         <v>10</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="F69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="72" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="3">
-        <v>12</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
     </row>
     <row r="74" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E74" s="3">
+        <v>12</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>47</v>
@@ -2075,199 +2390,199 @@
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="3">
-        <v>200</v>
+        <v>23</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="3">
+        <v>200</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E80" s="3">
         <v>5</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="F80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+    <row r="83" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="3">
-        <v>12</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E85" s="3">
+        <v>12</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="86" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="3">
+        <v>5</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="87" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>47</v>
@@ -2275,99 +2590,90 @@
       <c r="F87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="3"/>
+      <c r="G87" s="4"/>
       <c r="H87" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B34:H34"/>
+  <mergeCells count="15">
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K28:Q28"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B72:H72"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B2B128-5F9F-4A7B-9600-9BDFFEEEF83C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E44AE-2056-45B5-9A03-A170E0F73CB5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DA9210-703F-406D-A3E5-7A8B771980A6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514B751-61A1-4BF4-BCBA-04E6B872956E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A1A52B-09D7-4592-A0EE-04F2A3DA8B06}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
+++ b/0.商務軟體分析_專題製作/UML/商品管理與販售平台系統資料規格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\0.Homework\0.商務軟體分析_專題製作\UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EE1183-CAC4-4451-934B-9E5981FDC65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A91837-87A6-4014-BEDC-3B5424B39102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1755" windowWidth="28800" windowHeight="15345" xr2:uid="{C044DA50-0112-404E-A9D3-A86B7E7712CE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="126">
   <si>
     <t xml:space="preserve"> Entity：會員  Table Name : Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,34 +164,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Entity：會員帳密  Table Name : MemberAccount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>P.F.K</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Entity：房間  Table Name : Room</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>房間編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>房間名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">RoomName </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -418,10 +390,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>束十-商品管理與販售平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Entity：會員手機  Table Name : MemberTel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -438,10 +406,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>使用者共通資料儲存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>創作者編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -514,10 +478,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>google_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -551,6 +511,30 @@
   </si>
   <si>
     <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity：商品  Table Name : Prouduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProuductID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bondle-商品管理與販售平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,16 +750,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
@@ -787,11 +771,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DEA3CBF-AB68-4CCD-A92A-FF42B1F61844}">
   <dimension ref="B2:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1130,154 +1111,184 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="K4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="3">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="K4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="K5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N7" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3">
         <v>255</v>
@@ -1285,83 +1296,75 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="3">
-        <v>40</v>
+      <c r="N8" s="5">
+        <v>10</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E9" s="3">
         <v>255</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="5">
-        <v>10</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -1372,25 +1375,6 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1400,36 +1384,44 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="3"/>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="5">
+        <v>50</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+    <row r="13" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="K13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="5">
-        <v>50</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1458,33 +1450,20 @@
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1492,27 +1471,17 @@
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="3">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -1525,159 +1494,158 @@
         <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>30</v>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="20" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="2:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="K27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
+      <c r="K28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="K30" s="2"/>
@@ -1685,8 +1653,8 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="2:17" ht="21" x14ac:dyDescent="0.25">
       <c r="K31" s="2"/>
@@ -1695,537 +1663,482 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K32" s="2"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="B32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="K32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3">
+        <v>36</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M33" s="3" t="s">
+    </row>
+    <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="3">
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3">
+        <v>30</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="5">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="51" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="3">
+        <v>40</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K38" s="1" t="s">
+      <c r="C55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5">
         <v>1</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="3">
-        <v>30</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="3">
-        <v>20</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" s="3">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="11:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
-      <c r="K49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="3">
-        <v>36</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-    </row>
-    <row r="51" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="K52" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="3">
-        <v>40</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="K55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N55" s="3">
-        <v>36</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E58" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="5">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="3">
-        <v>400</v>
+      <c r="E60" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>10</v>
@@ -2240,19 +2153,19 @@
         <v>30</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
+      <c r="B66" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -2279,10 +2192,10 @@
     </row>
     <row r="68" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>10</v>
@@ -2300,10 +2213,10 @@
     </row>
     <row r="69" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>16</v>
@@ -2318,15 +2231,15 @@
       <c r="H69" s="4"/>
     </row>
     <row r="72" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10"/>
+      <c r="B72" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
@@ -2353,10 +2266,10 @@
     </row>
     <row r="74" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>10</v>
@@ -2374,37 +2287,37 @@
     </row>
     <row r="75" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>11</v>
@@ -2414,16 +2327,16 @@
     </row>
     <row r="77" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>11</v>
@@ -2433,28 +2346,28 @@
     </row>
     <row r="78" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -2466,7 +2379,7 @@
         <v>200</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -2495,15 +2408,15 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
+      <c r="B83" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
@@ -2530,10 +2443,10 @@
     </row>
     <row r="85" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>10</v>
@@ -2545,18 +2458,18 @@
         <v>11</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>10</v>
@@ -2568,109 +2481,107 @@
         <v>11</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K28:Q28"/>
+  <mergeCells count="13">
+    <mergeCell ref="K27:Q27"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B51:H51"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
